--- a/resources/tools/wordlist_E-J/lessons/lesson-3.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,1468 +436,1468 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to go</t>
+          <t>movie</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>行く|いく</t>
+          <t>映画|えいが</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to go back; to return</t>
+          <t>music</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>帰る|かえる</t>
+          <t>音楽|おんがく</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to listen; to hear</t>
+          <t>magazine</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>聞く|きく</t>
+          <t>雑誌|ざっし</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to drink</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>飲む|のむ</t>
+          <t>スポーツ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to speak; to talk</t>
+          <t>date (romantic, not calendar)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>話す|はなす</t>
+          <t>デート</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to read</t>
+          <t>tennis</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>読む|よむ</t>
+          <t>テニス</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ice cream</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>アイスクリーム</t>
+          <t>テレビ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>breakfast</t>
+          <t>ice cream</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>朝ご飯|あさごはん</t>
+          <t>アイスクリーム</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sake; alcohol</t>
+          <t>breakfast</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>お酒|おさけ</t>
+          <t>朝ご飯|あさごはん</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>green tea</t>
+          <t>sake; alcohol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>お茶|おちゃ</t>
+          <t>お酒|おさけ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>green tea</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>コーヒー</t>
+          <t>お茶|おちゃ</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>晩ご飯|ばんごはん</t>
+          <t>コーヒー</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hamburger</t>
+          <t>dinner</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ハンバーガー</t>
+          <t>晩ご飯|ばんごはん</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lunch</t>
+          <t>hamburger</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>昼ご飯|ひるごはん</t>
+          <t>ハンバーガー</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>lunch</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>水|みず</t>
+          <t>昼ご飯|ひるごはん</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>not much</t>
+          <t>water</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>あまり</t>
+          <t>水|みず</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>not at all</t>
+          <t>home; house</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>全然|ぜんぜん</t>
+          <t>家|いえ</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>usually</t>
+          <t>home; house; my place</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>たいてい</t>
+          <t>うち</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a little</t>
+          <t>school</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ちょっと</t>
+          <t>学校|がっこう</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sometimes</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>時々|ときどき</t>
+          <t>朝|あさ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>often; much</t>
+          <t>tomorrow</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>よく</t>
+          <t>明日|あした</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>movie</t>
+          <t>when</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>映画|えいが</t>
+          <t>いつ</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>today</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>音楽|おんがく</t>
+          <t>今日|きょう</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>magazine</t>
+          <t>at about...</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>雑誌|ざっし</t>
+          <t>～ごろ</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t>tonight</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>スポーツ</t>
+          <t>今晩|こんばん</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>date (romantic, not calendar)</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>デート</t>
+          <t>週末|しゅうまつ</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>tennis</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>テニス</t>
+          <t>土曜日|どようび</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>テレビ</t>
+          <t>日曜日|にちようび</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>home; house</t>
+          <t>every day</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>家|いえ</t>
+          <t>毎日|まいにち</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>home; house; my place</t>
+          <t>every night</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>うち</t>
+          <t>毎晩|まいばん</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>to go</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>学校|がっこう</t>
+          <t>行く|いく</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>to go back; to return</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>朝|あさ</t>
+          <t>帰る|かえる</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>tomorrow</t>
+          <t>to listen; to hear</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>明日|あした</t>
+          <t>聞く|きく</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>to drink</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>いつ</t>
+          <t>飲む|のむ</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>today</t>
+          <t>to speak; to talk</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>今日|きょう</t>
+          <t>話す|はなす</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>at about...</t>
+          <t>to read</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>～ごろ</t>
+          <t>読む|よむ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>tonight</t>
+          <t>to get up</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>今晩|こんばん</t>
+          <t>起きる|おきる</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>weekend</t>
+          <t>to eat</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>週末|しゅうまつ</t>
+          <t>食べる|たべる</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>to sleep; to go to sleep</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>土曜日|どようび</t>
+          <t>寝る|ねる</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>to see; to look at; to watch</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>日曜日|にちようび</t>
+          <t>見る|みる</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>every day</t>
+          <t>to come</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>毎日|まいにち</t>
+          <t>来る|くる</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>every night</t>
+          <t>to do</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>毎晩|まいばん</t>
+          <t>する</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>to study</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>いい</t>
+          <t>勉強する|べんきょうする</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>not much</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>早い|はやい</t>
+          <t>あまり</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>That's right.; Let me see.</t>
+          <t>not at all</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>そうですね</t>
+          <t>全然|ぜんぜん</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>usually</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>でも</t>
+          <t>たいてい</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>How about...?; How is...?</t>
+          <t>a little</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>どうですか</t>
+          <t>ちょっと</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>to get up</t>
+          <t>sometimes</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>起きる|おきる</t>
+          <t>時々|ときどき</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>to eat</t>
+          <t>often; much</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>食べる|たべる</t>
+          <t>よく</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>to sleep; to go to sleep</t>
+          <t>good</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>寝る|ねる</t>
+          <t>いい</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>to see; to look at; to watch</t>
+          <t>early</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>見る|みる</t>
+          <t>早い|はやい</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>to come</t>
+          <t>That's right.; Let me see.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>来る|くる</t>
+          <t>そうですね</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>to do</t>
+          <t>but</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>する</t>
+          <t>でも</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>to study</t>
+          <t>How about...?; How is...?</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>勉強する|べんきょうする</t>
+          <t>どうですか</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>one</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>五|ご</t>
+          <t>一|いち</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>five o'clock</t>
+          <t>one o'clock</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>五時|ごじ</t>
+          <t>一時|いちじ</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>first-year student</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>五月|ごがつ</t>
+          <t>一年生|いちねんせい</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>five years old</t>
+          <t>one minute</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>五歳|ごさい</t>
+          <t>一分|いっぷん</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>five (～つ)</t>
+          <t>one (～つ)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>五つ|いつつ</t>
+          <t>一つ|ひとつ</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>two</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>六|ろく</t>
+          <t>二|に</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>six o'clock</t>
+          <t>two o'clock</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>六時|ろくじ</t>
+          <t>二時|にじ</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>six hundred</t>
+          <t>second-year student</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>六百|ろっぴゃく</t>
+          <t>二年生|にねんせい</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>six minutes</t>
+          <t>two (～つ)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>六分|ろっぷん</t>
+          <t>二つ|ふたつ</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>six (～つ)</t>
+          <t>two days</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>六つ|むっつ</t>
+          <t>二日間|ふつかかん</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>nine</t>
+          <t>three</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>九|きゅう</t>
+          <t>三|さん</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>nine o'clock</t>
+          <t>three o'clock</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>九時|くじ</t>
+          <t>三時|さんじ</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>third-year student</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>九月|くがつ</t>
+          <t>三年生|さんねんせい</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>nine years old</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>九歳|きゅうさい</t>
+          <t>三月|さんがつ</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>nine (～つ)</t>
+          <t>three (～つ)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>九つ|ここのつ</t>
+          <t>三つ|みっつ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>four</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>十|じゅう／とお</t>
+          <t>四|よん</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ten o'clock</t>
+          <t>four o'clock</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>十時|じゅうじ</t>
+          <t>四時|よじ</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>fourth-year student</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>十月|じゅうがつ</t>
+          <t>四年生|よねんせい</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ten years old</t>
+          <t>April</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>十歳|じゅっさい／じっさい</t>
+          <t>四月|しがつ</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>one hundred yen</t>
+          <t>four (～つ)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>百円|ひゃくえん</t>
+          <t>四つ|よっつ</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>circle</t>
+          <t>five</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>円|えん</t>
+          <t>五|ご</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>strong yen</t>
+          <t>five o'clock</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>円高|えんだか</t>
+          <t>五時|ごじ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>May</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>円い|まるい</t>
+          <t>五月|ごがつ</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>one o'clock</t>
+          <t>five years old</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>一時|いちじ</t>
+          <t>五歳|ごさい</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>in one's childhood</t>
+          <t>five (～つ)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>子供の時|こどものとき</t>
+          <t>五つ|いつつ</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sometimes</t>
+          <t>six</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>時々|ときどき</t>
+          <t>六|ろく</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>watch</t>
+          <t>six o'clock</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>時計|とけい</t>
+          <t>六時|ろくじ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>six hundred</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>一|いち</t>
+          <t>六百|ろっぴゃく</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>one o'clock</t>
+          <t>six minutes</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>一時|いちじ</t>
+          <t>六分|ろっぷん</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>first-year student</t>
+          <t>six (～つ)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>一年生|いちねんせい</t>
+          <t>六つ|むっつ</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>one minute</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>一分|いっぷん</t>
+          <t>七|しち／なな</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>one (～つ)</t>
+          <t>seven o'clock</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>一つ|ひとつ</t>
+          <t>七時|しちじ</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>July</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>二|に</t>
+          <t>七月|しちがつ</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>two o'clock</t>
+          <t>seven (～つ)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>二時|にじ</t>
+          <t>七つ|ななつ</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>second-year student</t>
+          <t>seven people</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>二年生|にねんせい</t>
+          <t>七人|ななにん／しちにん</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>two (～つ)</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>二つ|ふたつ</t>
+          <t>八|はち</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>two days</t>
+          <t>eight o'clock</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>二日間|ふつかかん</t>
+          <t>八時|はちじ</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>eight hundred</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>七|しち／なな</t>
+          <t>八百|はっぴゃく</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>seven o'clock</t>
+          <t>eight years old</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>七時|しちじ</t>
+          <t>八歳|はっさい</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>eight (～つ)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>七月|しちがつ</t>
+          <t>八つ|やっつ</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>seven (～つ)</t>
+          <t>nine</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>七つ|ななつ</t>
+          <t>九|きゅう</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>seven people</t>
+          <t>nine o'clock</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>七人|ななにん／しちにん</t>
+          <t>九時|くじ</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>September</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>八|はち</t>
+          <t>九月|くがつ</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>eight o'clock</t>
+          <t>nine years old</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>八時|はちじ</t>
+          <t>九歳|きゅうさい</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>eight hundred</t>
+          <t>nine (～つ)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>八百|はっぴゃく</t>
+          <t>九つ|ここのつ</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>eight years old</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>八歳|はっさい</t>
+          <t>十|じゅう／とお</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>eight (～つ)</t>
+          <t>ten o'clock</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>八つ|やっつ</t>
+          <t>十時|じゅうじ</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>三|さん</t>
+          <t>十月|じゅうがつ</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>three o'clock</t>
+          <t>ten years old</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>三時|さんじ</t>
+          <t>十歳|じゅっさい／じっさい</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>third-year student</t>
+          <t>hundred</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>三年生|さんねんせい</t>
+          <t>百|ひゃく</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>three hundred</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>三月|さんがつ</t>
+          <t>三百|さんびゃく</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>three (～つ)</t>
+          <t>six hundred</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>三つ|みっつ</t>
+          <t>六百|ろっぴゃく</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>eight hundred</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>四|よん</t>
+          <t>八百|はっぴゃく</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>four o'clock</t>
+          <t>thousand</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>四時|よじ</t>
+          <t>千|せん</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>fourth-year student</t>
+          <t>three thousand</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>四年生|よねんせい</t>
+          <t>三千|さんぜん</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>eight thousand</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>四月|しがつ</t>
+          <t>八千|はっせん</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>four (～つ)</t>
+          <t>one thousand yen</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>四つ|よっつ</t>
+          <t>千円|せんえん</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>hundred</t>
+          <t>ten thousand</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>百|ひゃく</t>
+          <t>一万|いちまん</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>three hundred</t>
+          <t>one hundred thousand</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>三百|さんびゃく</t>
+          <t>十万|じゅうまん</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>six hundred</t>
+          <t>one million</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>六百|ろっぴゃく</t>
+          <t>百万|ひゃくまん</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>eight hundred</t>
+          <t>one hundred yen</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>八百|はっぴゃく</t>
+          <t>百円|ひゃくえん</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>thousand</t>
+          <t>circle</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>千|せん</t>
+          <t>円|えん</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>three thousand</t>
+          <t>strong yen</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>三千|さんぜん</t>
+          <t>円高|えんだか</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>eight thousand</t>
+          <t>round</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>八千|はっせん</t>
+          <t>円い|まるい</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>one thousand yen</t>
+          <t>one o'clock</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>千円|せんえん</t>
+          <t>一時|いちじ</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ten thousand</t>
+          <t>in one's childhood</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>一万|いちまん</t>
+          <t>子供の時|こどものとき</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>one hundred thousand</t>
+          <t>sometimes</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>十万|じゅうまん</t>
+          <t>時々|ときどき</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>one million</t>
+          <t>watch</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>百万|ひゃくまん</t>
+          <t>時計|とけい</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-3.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-3.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1898,6 +1898,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>